--- a/biology/Mycologie/Oskar_Eberhard_Ulbrich/Oskar_Eberhard_Ulbrich.xlsx
+++ b/biology/Mycologie/Oskar_Eberhard_Ulbrich/Oskar_Eberhard_Ulbrich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oskar Eberhard Ulbrich (17 septembre 1879, Berlin – 4 novembre 1952) est un botaniste et mycologue allemand.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a étudié les sciences naturelles à l'Université de Berlin, où ses instructeurs étaient notamment Adolf Engler (1844-1930) et Simon Schwendener (1829-1919). En 1926, il est devenu conservateur et professeur au Musée botanique de Berlin, dont il fut nommé en 1938 directeur de la Hauptpilzstelle[1].
-Connu pour ses recherches intrafamiliales des familles botaniques Amaranthaceae, Chenopodiaceae et Caryophyllaceae, il a subdivisé en 1934 la famille des Chénopodiacées en huit sous-familles : Salicornioideae, Polycnemoideae (en), Chenopodioideae, Salsoloideae (en), etc.[2],[3]
-En 1911, il introduit l'utilisation de schémas en couleurs pour indiquer les aires de répartition géographiques sur les spécimens et fascicules d'herbier[4].
-Le genre de plantes Ulbrichia de la famille des Malvaceae lui a été dédié par le botaniste allemand, Ignatz Urban (1848-1931)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a étudié les sciences naturelles à l'Université de Berlin, où ses instructeurs étaient notamment Adolf Engler (1844-1930) et Simon Schwendener (1829-1919). En 1926, il est devenu conservateur et professeur au Musée botanique de Berlin, dont il fut nommé en 1938 directeur de la Hauptpilzstelle.
+Connu pour ses recherches intrafamiliales des familles botaniques Amaranthaceae, Chenopodiaceae et Caryophyllaceae, il a subdivisé en 1934 la famille des Chénopodiacées en huit sous-familles : Salicornioideae, Polycnemoideae (en), Chenopodioideae, Salsoloideae (en), etc.,
+En 1911, il introduit l'utilisation de schémas en couleurs pour indiquer les aires de répartition géographiques sur les spécimens et fascicules d'herbier.
+Le genre de plantes Ulbrichia de la famille des Malvaceae lui a été dédié par le botaniste allemand, Ignatz Urban (1848-1931).
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Die höheren Pilze: Basidiomycetes, troisième édition 1928 (avec Gustav Lindau 1866-1923) - Champignons supérieurs, Basidiomycetes.
-Pflanzenkunde, 1920[6]
-Chenopodiaceae. - In: Adolf Engler &amp; Karl Anton Eugen Prantl: Die natürlichen Pflanzenfamilien, deuxième édition. volume 16c: S.379-585, Duncker &amp; Humblot, Berlin 1934[7].</t>
+Pflanzenkunde, 1920
+Chenopodiaceae. - In: Adolf Engler &amp; Karl Anton Eugen Prantl: Die natürlichen Pflanzenfamilien, deuxième édition. volume 16c: S.379-585, Duncker &amp; Humblot, Berlin 1934.</t>
         </is>
       </c>
     </row>
